--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="27660" windowHeight="12255"/>
+    <workbookView xWindow="720" yWindow="375" windowWidth="20100" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="wynik" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>Succeses</t>
   </si>
   <si>
-    <t>Average time in microseconds</t>
+    <t>Average time required to sort a n element array</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> when each of the sorting algorithm was the quickest</a:t>
+              <a:t> when each of the sorting algorithm was the quickest.</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
@@ -625,9 +625,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wynik!$A$2:$A$70</c:f>
+              <c:f>wynik!$A$2:$A$120</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>n</c:v>
                 </c:pt>
@@ -834,16 +834,166 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wynik!$B$2:$B$70</c:f>
+              <c:f>wynik!$B$2:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1049,6 +1199,156 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1074,9 +1374,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wynik!$A$2:$A$70</c:f>
+              <c:f>wynik!$A$2:$A$120</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>n</c:v>
                 </c:pt>
@@ -1283,16 +1583,166 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wynik!$C$2:$C$70</c:f>
+              <c:f>wynik!$C$2:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1496,6 +1946,156 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,9 +2120,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wynik!$A$2:$A$70</c:f>
+              <c:f>wynik!$A$2:$A$120</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>n</c:v>
                 </c:pt>
@@ -1729,16 +2329,166 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wynik!$D$2:$D$70</c:f>
+              <c:f>wynik!$D$2:$D$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1942,6 +2692,156 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,9 +2866,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wynik!$A$2:$A$70</c:f>
+              <c:f>wynik!$A$2:$A$120</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>n</c:v>
                 </c:pt>
@@ -2175,16 +3075,166 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wynik!$E$2:$E$70</c:f>
+              <c:f>wynik!$E$2:$E$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2388,30 +3438,180 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>9991</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9987</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9993</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9991</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9888</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9880</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9924</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9946</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9941</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9988</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9985</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9992</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9989</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9992</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9993</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9987</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9982</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9981</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9987</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9992</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9973</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9995</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="45416448"/>
-        <c:axId val="45417984"/>
+        <c:axId val="184967936"/>
+        <c:axId val="184969472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45416448"/>
+        <c:axId val="184967936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45417984"/>
+        <c:crossAx val="184969472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45417984"/>
+        <c:axId val="184969472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +3619,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45416448"/>
+        <c:crossAx val="184967936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2488,9 +3688,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wynik!$G$2:$G$70</c:f>
+              <c:f>wynik!$G$2:$G$120</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>n</c:v>
                 </c:pt>
@@ -2697,16 +3897,166 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wynik!$H$2:$H$70</c:f>
+              <c:f>wynik!$H$2:$H$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2913,6 +4263,156 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2547.5100000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2755.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2790.79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2773.42</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2809.96</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2894.78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2975.18</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2887.67</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2965.64</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2956.89</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3022.19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3065.84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3421.61</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3271.83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3337.48</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3273.34</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3330.45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3325.26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3396.13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3465.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3489.31</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3549.99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3592.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3637.89</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3710.65</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3770.42</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3792.39</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3835.64</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3868.02</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3918.45</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3968.11</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4006.23</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4054.62</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4134.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4355.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4382.62</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4302.3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4327.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4377.6099999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4466.33</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4494.18</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4550.55</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4597.59</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4678.59</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4718.01</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4826.47</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4863.6899999999996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4953.08</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4999.68</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5001.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5056.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2937,9 +4437,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wynik!$G$2:$G$70</c:f>
+              <c:f>wynik!$G$2:$G$120</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>n</c:v>
                 </c:pt>
@@ -3146,16 +4646,166 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wynik!$I$2:$I$70</c:f>
+              <c:f>wynik!$I$2:$I$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="1">
                   <c:v>1.1299999999999999E-2</c:v>
                 </c:pt>
@@ -3359,6 +5009,156 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>669.71</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>705.48699999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>718.06799999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>725.67600000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>737.524</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>751.02</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>756.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>777.40099999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>790.18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>796.88400000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>811.34199999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>828.46400000000006</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>879.88</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>876.45100000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>890.149</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>888.01599999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>904.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>910.82100000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>927.76</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>947.83699999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>960.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>974.52700000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>993.11400000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1004.84</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1022.67</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1034.68</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1052.96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1067.32</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1079.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1094.83</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1111.26</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1126.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1141.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1160.83</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1199.1600000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1201.45</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1205.7</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1216.67</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1231.69</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1253.46</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1266.75</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1280.1600000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1298.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1316.03</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1332.27</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1352.04</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1369.09</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1389.33</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1400.55</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1411.03</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1427.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,9 +5183,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wynik!$G$2:$G$70</c:f>
+              <c:f>wynik!$G$2:$G$120</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>n</c:v>
                 </c:pt>
@@ -3592,16 +5392,166 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wynik!$J$2:$J$70</c:f>
+              <c:f>wynik!$J$2:$J$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="1">
                   <c:v>2.0899999999999998E-2</c:v>
                 </c:pt>
@@ -3805,6 +5755,156 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>470.31900000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>511.09800000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>514.88699999999994</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>511.738</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>516.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>526.62400000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>521.49300000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>532.68100000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>545.70600000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>543.98800000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>558.11199999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>562.59299999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>619.649</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>601.20899999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>611.12900000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>600.60299999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>608.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>610.202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>622.01199999999994</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>636.101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>641.726</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>651.98400000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>661.04</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>670.21100000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>679.00699999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>685.73</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>696.14800000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>705.56</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>712.15200000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>720.86</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>732.83399999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>738.26599999999996</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>747.29100000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>763.79200000000003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>802.01199999999994</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>794.44100000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>788.80600000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>792.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>799.41499999999996</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>813.26599999999996</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>820.346</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>829.404</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>837.60799999999995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>853.024</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>867.18499999999995</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>875.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>882.83699999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>898.25300000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>904.47900000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>908.41099999999994</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>915.19299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3829,9 +5929,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wynik!$G$2:$G$70</c:f>
+              <c:f>wynik!$G$2:$G$120</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>n</c:v>
                 </c:pt>
@@ -4038,16 +6138,166 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wynik!$K$2:$K$70</c:f>
+              <c:f>wynik!$K$2:$K$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="1">
                   <c:v>9.5299999999999996E-2</c:v>
                 </c:pt>
@@ -4251,30 +6501,180 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>170.364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>180.95699999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>184.79499999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>182.19300000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>185.09</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>188.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>198.68700000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>204.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>205.18299999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>202.881</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>200.15899999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>208.78100000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>222.505</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>216.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>217.07599999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>213.38499999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>218.059</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>218.262</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>222.02099999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>226.173</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>226.892</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>231.10900000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>235.399</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>236.21600000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>241.96700000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>241.72399999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>246.11699999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>249.779</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>250.76599999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>252.57400000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>256.79199999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>258.541</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>261.58600000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>271.16500000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>280.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>283.36599999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>275.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>278.173</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>284.63799999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>287.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>295.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>296.34300000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>301.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>306.63499999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>306.66300000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>314.51799999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>319.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>322.52</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>329.64</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>327.18400000000003</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>326.00299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="142390016"/>
-        <c:axId val="145011840"/>
+        <c:axId val="136405760"/>
+        <c:axId val="137709056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142390016"/>
+        <c:axId val="136405760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145011840"/>
+        <c:crossAx val="137709056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145011840"/>
+        <c:axId val="137709056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4282,7 +6682,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142390016"/>
+        <c:crossAx val="136405760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4305,16 +6705,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685797</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4335,20 +6735,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4651,13 +7051,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="11" max="11" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -6879,6 +9282,1606 @@
       </c>
       <c r="K70">
         <v>170.364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>5100</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>9984</v>
+      </c>
+      <c r="G71">
+        <v>5100</v>
+      </c>
+      <c r="H71">
+        <v>2755.7</v>
+      </c>
+      <c r="I71">
+        <v>705.48699999999997</v>
+      </c>
+      <c r="J71">
+        <v>511.09800000000001</v>
+      </c>
+      <c r="K71">
+        <v>180.95699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>5200</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>9993</v>
+      </c>
+      <c r="G72">
+        <v>5200</v>
+      </c>
+      <c r="H72">
+        <v>2790.79</v>
+      </c>
+      <c r="I72">
+        <v>718.06799999999998</v>
+      </c>
+      <c r="J72">
+        <v>514.88699999999994</v>
+      </c>
+      <c r="K72">
+        <v>184.79499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>5300</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>9987</v>
+      </c>
+      <c r="G73">
+        <v>5300</v>
+      </c>
+      <c r="H73">
+        <v>2773.42</v>
+      </c>
+      <c r="I73">
+        <v>725.67600000000004</v>
+      </c>
+      <c r="J73">
+        <v>511.738</v>
+      </c>
+      <c r="K73">
+        <v>182.19300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>5400</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>9993</v>
+      </c>
+      <c r="G74">
+        <v>5400</v>
+      </c>
+      <c r="H74">
+        <v>2809.96</v>
+      </c>
+      <c r="I74">
+        <v>737.524</v>
+      </c>
+      <c r="J74">
+        <v>516.42999999999995</v>
+      </c>
+      <c r="K74">
+        <v>185.09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>5500</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>9991</v>
+      </c>
+      <c r="G75">
+        <v>5500</v>
+      </c>
+      <c r="H75">
+        <v>2894.78</v>
+      </c>
+      <c r="I75">
+        <v>751.02</v>
+      </c>
+      <c r="J75">
+        <v>526.62400000000002</v>
+      </c>
+      <c r="K75">
+        <v>188.77600000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>5600</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>109</v>
+      </c>
+      <c r="E76">
+        <v>9888</v>
+      </c>
+      <c r="G76">
+        <v>5600</v>
+      </c>
+      <c r="H76">
+        <v>2975.18</v>
+      </c>
+      <c r="I76">
+        <v>756.51900000000001</v>
+      </c>
+      <c r="J76">
+        <v>521.49300000000005</v>
+      </c>
+      <c r="K76">
+        <v>198.68700000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>5700</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>120</v>
+      </c>
+      <c r="E77">
+        <v>9880</v>
+      </c>
+      <c r="G77">
+        <v>5700</v>
+      </c>
+      <c r="H77">
+        <v>2887.67</v>
+      </c>
+      <c r="I77">
+        <v>777.40099999999995</v>
+      </c>
+      <c r="J77">
+        <v>532.68100000000004</v>
+      </c>
+      <c r="K77">
+        <v>204.82900000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>5800</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>75</v>
+      </c>
+      <c r="E78">
+        <v>9924</v>
+      </c>
+      <c r="G78">
+        <v>5800</v>
+      </c>
+      <c r="H78">
+        <v>2965.64</v>
+      </c>
+      <c r="I78">
+        <v>790.18</v>
+      </c>
+      <c r="J78">
+        <v>545.70600000000002</v>
+      </c>
+      <c r="K78">
+        <v>205.18299999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>5900</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>53</v>
+      </c>
+      <c r="E79">
+        <v>9946</v>
+      </c>
+      <c r="G79">
+        <v>5900</v>
+      </c>
+      <c r="H79">
+        <v>2956.89</v>
+      </c>
+      <c r="I79">
+        <v>796.88400000000001</v>
+      </c>
+      <c r="J79">
+        <v>543.98800000000006</v>
+      </c>
+      <c r="K79">
+        <v>202.881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>6000</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>9995</v>
+      </c>
+      <c r="G80">
+        <v>6000</v>
+      </c>
+      <c r="H80">
+        <v>3022.19</v>
+      </c>
+      <c r="I80">
+        <v>811.34199999999998</v>
+      </c>
+      <c r="J80">
+        <v>558.11199999999997</v>
+      </c>
+      <c r="K80">
+        <v>200.15899999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>6100</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>59</v>
+      </c>
+      <c r="E81">
+        <v>9941</v>
+      </c>
+      <c r="G81">
+        <v>6100</v>
+      </c>
+      <c r="H81">
+        <v>3065.84</v>
+      </c>
+      <c r="I81">
+        <v>828.46400000000006</v>
+      </c>
+      <c r="J81">
+        <v>562.59299999999996</v>
+      </c>
+      <c r="K81">
+        <v>208.78100000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>6200</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>9984</v>
+      </c>
+      <c r="G82">
+        <v>6200</v>
+      </c>
+      <c r="H82">
+        <v>3421.61</v>
+      </c>
+      <c r="I82">
+        <v>879.88</v>
+      </c>
+      <c r="J82">
+        <v>619.649</v>
+      </c>
+      <c r="K82">
+        <v>222.505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>6300</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>9988</v>
+      </c>
+      <c r="G83">
+        <v>6300</v>
+      </c>
+      <c r="H83">
+        <v>3271.83</v>
+      </c>
+      <c r="I83">
+        <v>876.45100000000002</v>
+      </c>
+      <c r="J83">
+        <v>601.20899999999995</v>
+      </c>
+      <c r="K83">
+        <v>216.62200000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>6400</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>9984</v>
+      </c>
+      <c r="G84">
+        <v>6400</v>
+      </c>
+      <c r="H84">
+        <v>3337.48</v>
+      </c>
+      <c r="I84">
+        <v>890.149</v>
+      </c>
+      <c r="J84">
+        <v>611.12900000000002</v>
+      </c>
+      <c r="K84">
+        <v>217.07599999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>6500</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>9996</v>
+      </c>
+      <c r="G85">
+        <v>6500</v>
+      </c>
+      <c r="H85">
+        <v>3273.34</v>
+      </c>
+      <c r="I85">
+        <v>888.01599999999996</v>
+      </c>
+      <c r="J85">
+        <v>600.60299999999995</v>
+      </c>
+      <c r="K85">
+        <v>213.38499999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>6600</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>9985</v>
+      </c>
+      <c r="G86">
+        <v>6600</v>
+      </c>
+      <c r="H86">
+        <v>3330.45</v>
+      </c>
+      <c r="I86">
+        <v>904.56700000000001</v>
+      </c>
+      <c r="J86">
+        <v>608.88499999999999</v>
+      </c>
+      <c r="K86">
+        <v>218.059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>6700</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>9992</v>
+      </c>
+      <c r="G87">
+        <v>6700</v>
+      </c>
+      <c r="H87">
+        <v>3325.26</v>
+      </c>
+      <c r="I87">
+        <v>910.82100000000003</v>
+      </c>
+      <c r="J87">
+        <v>610.202</v>
+      </c>
+      <c r="K87">
+        <v>218.262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>6800</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>9998</v>
+      </c>
+      <c r="G88">
+        <v>6800</v>
+      </c>
+      <c r="H88">
+        <v>3396.13</v>
+      </c>
+      <c r="I88">
+        <v>927.76</v>
+      </c>
+      <c r="J88">
+        <v>622.01199999999994</v>
+      </c>
+      <c r="K88">
+        <v>222.02099999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>6900</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>9996</v>
+      </c>
+      <c r="G89">
+        <v>6900</v>
+      </c>
+      <c r="H89">
+        <v>3465.75</v>
+      </c>
+      <c r="I89">
+        <v>947.83699999999999</v>
+      </c>
+      <c r="J89">
+        <v>636.101</v>
+      </c>
+      <c r="K89">
+        <v>226.173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>7000</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>9997</v>
+      </c>
+      <c r="G90">
+        <v>7000</v>
+      </c>
+      <c r="H90">
+        <v>3489.31</v>
+      </c>
+      <c r="I90">
+        <v>960.51900000000001</v>
+      </c>
+      <c r="J90">
+        <v>641.726</v>
+      </c>
+      <c r="K90">
+        <v>226.892</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>7100</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>9998</v>
+      </c>
+      <c r="G91">
+        <v>7100</v>
+      </c>
+      <c r="H91">
+        <v>3549.99</v>
+      </c>
+      <c r="I91">
+        <v>974.52700000000004</v>
+      </c>
+      <c r="J91">
+        <v>651.98400000000004</v>
+      </c>
+      <c r="K91">
+        <v>231.10900000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>7200</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>9996</v>
+      </c>
+      <c r="G92">
+        <v>7200</v>
+      </c>
+      <c r="H92">
+        <v>3592.3</v>
+      </c>
+      <c r="I92">
+        <v>993.11400000000003</v>
+      </c>
+      <c r="J92">
+        <v>661.04</v>
+      </c>
+      <c r="K92">
+        <v>235.399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>7300</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>9997</v>
+      </c>
+      <c r="G93">
+        <v>7300</v>
+      </c>
+      <c r="H93">
+        <v>3637.89</v>
+      </c>
+      <c r="I93">
+        <v>1004.84</v>
+      </c>
+      <c r="J93">
+        <v>670.21100000000001</v>
+      </c>
+      <c r="K93">
+        <v>236.21600000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>7400</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>9989</v>
+      </c>
+      <c r="G94">
+        <v>7400</v>
+      </c>
+      <c r="H94">
+        <v>3710.65</v>
+      </c>
+      <c r="I94">
+        <v>1022.67</v>
+      </c>
+      <c r="J94">
+        <v>679.00699999999995</v>
+      </c>
+      <c r="K94">
+        <v>241.96700000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>7500</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>9999</v>
+      </c>
+      <c r="G95">
+        <v>7500</v>
+      </c>
+      <c r="H95">
+        <v>3770.42</v>
+      </c>
+      <c r="I95">
+        <v>1034.68</v>
+      </c>
+      <c r="J95">
+        <v>685.73</v>
+      </c>
+      <c r="K95">
+        <v>241.72399999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>7600</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>9996</v>
+      </c>
+      <c r="G96">
+        <v>7600</v>
+      </c>
+      <c r="H96">
+        <v>3792.39</v>
+      </c>
+      <c r="I96">
+        <v>1052.96</v>
+      </c>
+      <c r="J96">
+        <v>696.14800000000002</v>
+      </c>
+      <c r="K96">
+        <v>246.11699999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>7700</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>9995</v>
+      </c>
+      <c r="G97">
+        <v>7700</v>
+      </c>
+      <c r="H97">
+        <v>3835.64</v>
+      </c>
+      <c r="I97">
+        <v>1067.32</v>
+      </c>
+      <c r="J97">
+        <v>705.56</v>
+      </c>
+      <c r="K97">
+        <v>249.779</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>7800</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>9992</v>
+      </c>
+      <c r="G98">
+        <v>7800</v>
+      </c>
+      <c r="H98">
+        <v>3868.02</v>
+      </c>
+      <c r="I98">
+        <v>1079.8699999999999</v>
+      </c>
+      <c r="J98">
+        <v>712.15200000000004</v>
+      </c>
+      <c r="K98">
+        <v>250.76599999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>7900</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>9996</v>
+      </c>
+      <c r="G99">
+        <v>7900</v>
+      </c>
+      <c r="H99">
+        <v>3918.45</v>
+      </c>
+      <c r="I99">
+        <v>1094.83</v>
+      </c>
+      <c r="J99">
+        <v>720.86</v>
+      </c>
+      <c r="K99">
+        <v>252.57400000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>8000</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>9993</v>
+      </c>
+      <c r="G100">
+        <v>8000</v>
+      </c>
+      <c r="H100">
+        <v>3968.11</v>
+      </c>
+      <c r="I100">
+        <v>1111.26</v>
+      </c>
+      <c r="J100">
+        <v>732.83399999999995</v>
+      </c>
+      <c r="K100">
+        <v>256.79199999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>8100</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>9990</v>
+      </c>
+      <c r="G101">
+        <v>8100</v>
+      </c>
+      <c r="H101">
+        <v>4006.23</v>
+      </c>
+      <c r="I101">
+        <v>1126.8499999999999</v>
+      </c>
+      <c r="J101">
+        <v>738.26599999999996</v>
+      </c>
+      <c r="K101">
+        <v>258.541</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>8200</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>9994</v>
+      </c>
+      <c r="G102">
+        <v>8200</v>
+      </c>
+      <c r="H102">
+        <v>4054.62</v>
+      </c>
+      <c r="I102">
+        <v>1141.6300000000001</v>
+      </c>
+      <c r="J102">
+        <v>747.29100000000005</v>
+      </c>
+      <c r="K102">
+        <v>261.58600000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>8300</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>9987</v>
+      </c>
+      <c r="G103">
+        <v>8300</v>
+      </c>
+      <c r="H103">
+        <v>4134.2</v>
+      </c>
+      <c r="I103">
+        <v>1160.83</v>
+      </c>
+      <c r="J103">
+        <v>763.79200000000003</v>
+      </c>
+      <c r="K103">
+        <v>271.16500000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>8400</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>9982</v>
+      </c>
+      <c r="G104">
+        <v>8400</v>
+      </c>
+      <c r="H104">
+        <v>4355.8999999999996</v>
+      </c>
+      <c r="I104">
+        <v>1199.1600000000001</v>
+      </c>
+      <c r="J104">
+        <v>802.01199999999994</v>
+      </c>
+      <c r="K104">
+        <v>280.80399999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>8500</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>19</v>
+      </c>
+      <c r="E105">
+        <v>9981</v>
+      </c>
+      <c r="G105">
+        <v>8500</v>
+      </c>
+      <c r="H105">
+        <v>4382.62</v>
+      </c>
+      <c r="I105">
+        <v>1201.45</v>
+      </c>
+      <c r="J105">
+        <v>794.44100000000003</v>
+      </c>
+      <c r="K105">
+        <v>283.36599999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>8600</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>9998</v>
+      </c>
+      <c r="G106">
+        <v>8600</v>
+      </c>
+      <c r="H106">
+        <v>4302.3</v>
+      </c>
+      <c r="I106">
+        <v>1205.7</v>
+      </c>
+      <c r="J106">
+        <v>788.80600000000004</v>
+      </c>
+      <c r="K106">
+        <v>275.40899999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>8700</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>9998</v>
+      </c>
+      <c r="G107">
+        <v>8700</v>
+      </c>
+      <c r="H107">
+        <v>4327.3500000000004</v>
+      </c>
+      <c r="I107">
+        <v>1216.67</v>
+      </c>
+      <c r="J107">
+        <v>792.16300000000001</v>
+      </c>
+      <c r="K107">
+        <v>278.173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>8800</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>9996</v>
+      </c>
+      <c r="G108">
+        <v>8800</v>
+      </c>
+      <c r="H108">
+        <v>4377.6099999999997</v>
+      </c>
+      <c r="I108">
+        <v>1231.69</v>
+      </c>
+      <c r="J108">
+        <v>799.41499999999996</v>
+      </c>
+      <c r="K108">
+        <v>284.63799999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>8900</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>9998</v>
+      </c>
+      <c r="G109">
+        <v>8900</v>
+      </c>
+      <c r="H109">
+        <v>4466.33</v>
+      </c>
+      <c r="I109">
+        <v>1253.46</v>
+      </c>
+      <c r="J109">
+        <v>813.26599999999996</v>
+      </c>
+      <c r="K109">
+        <v>287.51499999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>9000</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>13</v>
+      </c>
+      <c r="E110">
+        <v>9987</v>
+      </c>
+      <c r="G110">
+        <v>9000</v>
+      </c>
+      <c r="H110">
+        <v>4494.18</v>
+      </c>
+      <c r="I110">
+        <v>1266.75</v>
+      </c>
+      <c r="J110">
+        <v>820.346</v>
+      </c>
+      <c r="K110">
+        <v>295.77999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>9100</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>9998</v>
+      </c>
+      <c r="G111">
+        <v>9100</v>
+      </c>
+      <c r="H111">
+        <v>4550.55</v>
+      </c>
+      <c r="I111">
+        <v>1280.1600000000001</v>
+      </c>
+      <c r="J111">
+        <v>829.404</v>
+      </c>
+      <c r="K111">
+        <v>296.34300000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>9200</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>9995</v>
+      </c>
+      <c r="G112">
+        <v>9200</v>
+      </c>
+      <c r="H112">
+        <v>4597.59</v>
+      </c>
+      <c r="I112">
+        <v>1298.3399999999999</v>
+      </c>
+      <c r="J112">
+        <v>837.60799999999995</v>
+      </c>
+      <c r="K112">
+        <v>301.57299999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>9300</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>9998</v>
+      </c>
+      <c r="G113">
+        <v>9300</v>
+      </c>
+      <c r="H113">
+        <v>4678.59</v>
+      </c>
+      <c r="I113">
+        <v>1316.03</v>
+      </c>
+      <c r="J113">
+        <v>853.024</v>
+      </c>
+      <c r="K113">
+        <v>306.63499999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>9400</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>9997</v>
+      </c>
+      <c r="G114">
+        <v>9400</v>
+      </c>
+      <c r="H114">
+        <v>4718.01</v>
+      </c>
+      <c r="I114">
+        <v>1332.27</v>
+      </c>
+      <c r="J114">
+        <v>867.18499999999995</v>
+      </c>
+      <c r="K114">
+        <v>306.66300000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>9500</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>9992</v>
+      </c>
+      <c r="G115">
+        <v>9500</v>
+      </c>
+      <c r="H115">
+        <v>4826.47</v>
+      </c>
+      <c r="I115">
+        <v>1352.04</v>
+      </c>
+      <c r="J115">
+        <v>875.33600000000001</v>
+      </c>
+      <c r="K115">
+        <v>314.51799999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>9600</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>27</v>
+      </c>
+      <c r="E116">
+        <v>9973</v>
+      </c>
+      <c r="G116">
+        <v>9600</v>
+      </c>
+      <c r="H116">
+        <v>4863.6899999999996</v>
+      </c>
+      <c r="I116">
+        <v>1369.09</v>
+      </c>
+      <c r="J116">
+        <v>882.83699999999999</v>
+      </c>
+      <c r="K116">
+        <v>319.41800000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>9700</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>9996</v>
+      </c>
+      <c r="G117">
+        <v>9700</v>
+      </c>
+      <c r="H117">
+        <v>4953.08</v>
+      </c>
+      <c r="I117">
+        <v>1389.33</v>
+      </c>
+      <c r="J117">
+        <v>898.25300000000004</v>
+      </c>
+      <c r="K117">
+        <v>322.52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>9800</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>9994</v>
+      </c>
+      <c r="G118">
+        <v>9800</v>
+      </c>
+      <c r="H118">
+        <v>4999.68</v>
+      </c>
+      <c r="I118">
+        <v>1400.55</v>
+      </c>
+      <c r="J118">
+        <v>904.47900000000004</v>
+      </c>
+      <c r="K118">
+        <v>329.64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>9900</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>9995</v>
+      </c>
+      <c r="G119">
+        <v>9900</v>
+      </c>
+      <c r="H119">
+        <v>5001.1499999999996</v>
+      </c>
+      <c r="I119">
+        <v>1411.03</v>
+      </c>
+      <c r="J119">
+        <v>908.41099999999994</v>
+      </c>
+      <c r="K119">
+        <v>327.18400000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>10000</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>10000</v>
+      </c>
+      <c r="G120">
+        <v>10000</v>
+      </c>
+      <c r="H120">
+        <v>5056.47</v>
+      </c>
+      <c r="I120">
+        <v>1427.82</v>
+      </c>
+      <c r="J120">
+        <v>915.19299999999998</v>
+      </c>
+      <c r="K120">
+        <v>326.00299999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6886,11 +10889,11 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:E70">
+  <conditionalFormatting sqref="B3:E120">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1000"/>
+        <cfvo type="num" val="10000"/>
         <color theme="5" tint="-0.249977111117893"/>
         <color theme="8" tint="-0.249977111117893"/>
       </colorScale>
